--- a/Projects/RINIELSENUS/Data/Template_2018_SPT.xlsx
+++ b/Projects/RINIELSENUS/Data/Template_2018_SPT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Hierarchy" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,14 +29,15 @@
     <sheet name="sales" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hierarchy!$G$1:$G$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hierarchy!$A$1:$K$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hierarchy!$G$1:$G$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hierarchy!$A$1:$K$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hierarchy!$G$1:$G$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hierarchy!$A$1:$K$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hierarchy!$G$1:$G$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hierarchy!$A$1:$K$61</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hierarchy!$A$1:$K$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hierarchy!$G$1:$G$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hierarchy!$A$1:$K$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hierarchy!$G$1:$G$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hierarchy!$A$1:$K$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hierarchy!$G$1:$G$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hierarchy!$A$1:$K$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hierarchy!$G$1:$G$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hierarchy!$A$1:$K$61</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="460">
   <si>
     <t>Set name</t>
   </si>
@@ -1227,6 +1228,9 @@
     <t>Breed Size</t>
   </si>
   <si>
+    <t>ALLOWED;Customer Brand</t>
+  </si>
+  <si>
     <t>DOG MAIN MEAL WET</t>
   </si>
   <si>
@@ -1264,6 +1268,12 @@
   </si>
   <si>
     <t>CAT TREATS FUNCTIONAL</t>
+  </si>
+  <si>
+    <t>ABOUND,AO BRAND,AUTHORITY,DOCTORS FOSTER AND SMITH,FRUITABLES,GREENIES,HILL'S PRESCRIPTION DIET,IAMS,MEOW MIX,SUNSHINE,VET IQ</t>
+  </si>
+  <si>
+    <t>PURINA,PURINA PRO PLAN</t>
   </si>
   <si>
     <t>PEDIGREE DENTASTIX</t>
@@ -1634,7 +1644,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1795,7 +1805,23 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1813,18 +1839,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1951,22 +1965,22 @@
   </sheetPr>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="63.412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.7692307692308"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="78.412955465587"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="53.4534412955466"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.10526315789474"/>
   </cols>
@@ -3758,6 +3772,8 @@
       <c r="I60" s="15" t="n">
         <v>12.5</v>
       </c>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
@@ -3785,6 +3801,8 @@
       <c r="I61" s="15" t="n">
         <v>12.5</v>
       </c>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
@@ -3812,6 +3830,8 @@
       <c r="I62" s="14" t="n">
         <v>6</v>
       </c>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
@@ -3839,6 +3859,8 @@
       <c r="I63" s="14" t="n">
         <v>6</v>
       </c>
+      <c r="J63" s="0"/>
+      <c r="K63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
@@ -3866,6 +3888,8 @@
       <c r="I64" s="14" t="n">
         <v>6</v>
       </c>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="17" t="s">
@@ -3992,7 +4016,7 @@
       <c r="K68" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G64"/>
+  <autoFilter ref="A1:K64"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4017,17 +4041,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="83.5546558704453"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="84.3036437246964"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="55.2753036437247"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="9.10526315789474"/>
   </cols>
@@ -4058,13 +4082,13 @@
         <v>180</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>6</v>
@@ -4079,7 +4103,7 @@
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -4089,10 +4113,10 @@
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>2</v>
@@ -4107,7 +4131,7 @@
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
@@ -4117,10 +4141,10 @@
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
       <c r="J3" s="33" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>2</v>
@@ -4136,7 +4160,7 @@
       <c r="K6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="43"/>
+      <c r="K7" s="47"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4162,12 +4186,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4215,15 +4239,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.8421052631579"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.10526315789474"/>
@@ -4246,7 +4270,7 @@
         <v>179</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>174</v>
@@ -4255,33 +4279,33 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45" t="s">
-        <v>393</v>
-      </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="31" t="n">
         <v>1</v>
       </c>
@@ -4290,27 +4314,27 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
-        <v>392</v>
-      </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44" t="n">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4336,17 +4360,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="66.412955465587"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4398,13 +4422,13 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -4423,7 +4447,7 @@
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
@@ -4446,13 +4470,13 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -4473,7 +4497,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
@@ -4496,14 +4520,14 @@
         <v>180</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -4519,14 +4543,14 @@
         <v>180</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -4602,18 +4626,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="71.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="72.6275303643725"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="69.3076923076923"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
   </cols>
@@ -4647,13 +4671,13 @@
         <v>180</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>6</v>
@@ -4663,26 +4687,26 @@
       <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+        <v>442</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="L2" s="49" t="s">
-        <v>440</v>
-      </c>
-      <c r="M2" s="46" t="n">
+      <c r="L2" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="M2" s="44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4690,28 +4714,28 @@
       <c r="A3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="31" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+        <v>397</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="L3" s="49" t="s">
-        <v>441</v>
-      </c>
-      <c r="M3" s="46" t="n">
+      <c r="L3" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="M3" s="44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4719,28 +4743,28 @@
       <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="31" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+        <v>399</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="L4" s="49" t="s">
-        <v>442</v>
-      </c>
-      <c r="M4" s="46" t="n">
+      <c r="L4" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="M4" s="44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4748,28 +4772,28 @@
       <c r="A5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="31" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
+        <v>400</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="M5" s="46" t="n">
+      <c r="L5" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="M5" s="44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4777,26 +4801,26 @@
       <c r="A6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
+        <v>447</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="L6" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="M6" s="46" t="n">
+      <c r="L6" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="M6" s="44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4804,28 +4828,28 @@
       <c r="A7" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="F7" s="46"/>
+        <v>447</v>
+      </c>
+      <c r="F7" s="44"/>
       <c r="G7" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
       <c r="K7" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>447</v>
-      </c>
-      <c r="M7" s="46" t="n">
+        <v>449</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="M7" s="44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4833,28 +4857,28 @@
       <c r="A8" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="F8" s="46"/>
+        <v>447</v>
+      </c>
+      <c r="F8" s="44"/>
       <c r="G8" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
+        <v>451</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>447</v>
-      </c>
-      <c r="M8" s="46" t="n">
+        <v>449</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="M8" s="44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4882,12 +4906,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.10526315789474"/>
@@ -4907,7 +4931,7 @@
         <v>164</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>172</v>
@@ -4915,7 +4939,7 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4943,21 +4967,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>450</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>451</v>
+      <c r="B1" s="53" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,10 +4999,10 @@
       <c r="A3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="53" t="n">
+      <c r="B3" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="n">
+      <c r="C3" s="54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4986,10 +5010,10 @@
       <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="n">
+      <c r="B4" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="53" t="n">
+      <c r="C4" s="54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,10 +5021,10 @@
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="53" t="n">
+      <c r="B5" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="n">
+      <c r="C5" s="54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5028,11 +5052,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.3076923076923"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
@@ -6076,20 +6100,20 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="44" t="n">
+      <c r="F2" s="48" t="n">
         <v>14.4</v>
       </c>
     </row>
@@ -6119,43 +6143,43 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="33" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="33" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
-        <v>452</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>453</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>454</v>
-      </c>
-      <c r="D1" s="54" t="s">
+      <c r="A1" s="55" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="55" t="s">
         <v>390</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="55" t="s">
-        <v>455</v>
+      <c r="I1" s="56" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6163,7 +6187,7 @@
         <v>186</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>18</v>
@@ -6172,18 +6196,18 @@
         <v>131</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>435</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="I2" s="56" t="n">
+        <v>439</v>
+      </c>
+      <c r="I2" s="57" t="n">
         <v>9.78271568895752</v>
       </c>
     </row>
@@ -6192,7 +6216,7 @@
         <v>186</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
@@ -6201,16 +6225,16 @@
         <v>131</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="56" t="n">
+      <c r="I3" s="57" t="n">
         <v>11.0521084917305</v>
       </c>
     </row>
@@ -6219,7 +6243,7 @@
         <v>267</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
@@ -6228,18 +6252,18 @@
         <v>131</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>435</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="I4" s="56" t="n">
+        <v>439</v>
+      </c>
+      <c r="I4" s="57" t="n">
         <v>17.88466248855</v>
       </c>
     </row>
@@ -6248,7 +6272,7 @@
         <v>267</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>18</v>
@@ -6257,16 +6281,16 @@
         <v>131</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="56" t="n">
+      <c r="I5" s="57" t="n">
         <v>18.9060784543662</v>
       </c>
     </row>
@@ -6275,27 +6299,27 @@
         <v>186</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="58" t="s">
         <v>134</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>435</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="I6" s="56" t="n">
+        <v>440</v>
+      </c>
+      <c r="I6" s="57" t="n">
         <v>31.4551141619323</v>
       </c>
     </row>
@@ -6304,25 +6328,25 @@
         <v>186</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="58" t="s">
         <v>134</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="56" t="n">
+      <c r="I7" s="57" t="n">
         <v>5.26763877723949</v>
       </c>
     </row>
@@ -6331,27 +6355,27 @@
         <v>267</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="58" t="s">
         <v>134</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>435</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="I8" s="56" t="n">
+        <v>440</v>
+      </c>
+      <c r="I8" s="57" t="n">
         <v>32.9989766082384</v>
       </c>
     </row>
@@ -6360,25 +6384,25 @@
         <v>267</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="58" t="s">
         <v>134</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="56" t="n">
+      <c r="I9" s="57" t="n">
         <v>11.6065058150086</v>
       </c>
     </row>
@@ -6387,21 +6411,21 @@
         <v>186</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="57" t="s">
-        <v>395</v>
+      <c r="D10" s="58" t="s">
+        <v>396</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="56" t="n">
+      <c r="I10" s="57" t="n">
         <v>21.4821581164246</v>
       </c>
     </row>
@@ -6410,21 +6434,21 @@
         <v>267</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="57" t="s">
-        <v>395</v>
+      <c r="D11" s="58" t="s">
+        <v>396</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="56" t="n">
+      <c r="I11" s="57" t="n">
         <v>25.7995326360638</v>
       </c>
     </row>
@@ -6433,21 +6457,21 @@
         <v>186</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>400</v>
+      <c r="D12" s="58" t="s">
+        <v>401</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="56" t="n">
+      <c r="I12" s="57" t="n">
         <v>49.7783252554059</v>
       </c>
     </row>
@@ -6456,21 +6480,21 @@
         <v>267</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="57" t="s">
-        <v>400</v>
+      <c r="D13" s="58" t="s">
+        <v>401</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="56" t="n">
+      <c r="I13" s="57" t="n">
         <v>58.0267972690137</v>
       </c>
     </row>
@@ -6498,12 +6522,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="77.7692307692308"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="78.412955465587"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.10526315789474"/>
@@ -6603,13 +6627,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="66.1983805668016"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="59.8785425101215"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="41.8825910931174"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="21" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="21" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6950,21 +6974,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="75.3036437246964"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="75.9473684210526"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.10526315789474"/>
@@ -7081,14 +7105,14 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="9.10526315789474"/>
@@ -7221,10 +7245,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -14069,28 +14093,29 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="76.3765182186235"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14137,9 +14162,11 @@
         <v>172</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="0"/>
       <c r="Q1" s="0"/>
       <c r="R1" s="0"/>
       <c r="S1" s="0"/>
@@ -15162,12 +15189,12 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="39" t="s">
-        <v>393</v>
+      <c r="I2" s="40" t="s">
+        <v>394</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -15176,7 +15203,8 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="40" t="n">
+      <c r="O2" s="31"/>
+      <c r="P2" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15188,18 +15216,18 @@
         <v>65</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="39" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="39" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="39"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -15207,7 +15235,8 @@
         <v>116</v>
       </c>
       <c r="N3" s="13"/>
-      <c r="O3" s="40" t="n">
+      <c r="O3" s="42"/>
+      <c r="P3" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15219,18 +15248,18 @@
         <v>67</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="39" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="39" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="39"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -15238,7 +15267,8 @@
         <v>116</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="40" t="n">
+      <c r="O4" s="31"/>
+      <c r="P4" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15250,18 +15280,18 @@
         <v>68</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="39" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="39" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="39"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -15269,7 +15299,8 @@
         <v>116</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="40" t="n">
+      <c r="O5" s="31"/>
+      <c r="P5" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15281,18 +15312,18 @@
         <v>70</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="39" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="39" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="39"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -15300,7 +15331,8 @@
         <v>116</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="40" t="n">
+      <c r="O6" s="31"/>
+      <c r="P6" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15312,28 +15344,29 @@
         <v>71</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>175</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="O7" s="40" t="n">
+        <v>402</v>
+      </c>
+      <c r="O7" s="31"/>
+      <c r="P7" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15345,18 +15378,18 @@
         <v>72</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="39" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -15364,7 +15397,8 @@
         <v>116</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="40" t="n">
+      <c r="O8" s="31"/>
+      <c r="P8" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15376,18 +15410,18 @@
         <v>73</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -15395,7 +15429,8 @@
         <v>116</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="40" t="n">
+      <c r="O9" s="31"/>
+      <c r="P9" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15407,18 +15442,20 @@
         <v>74</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="31" t="s">
+        <v>406</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -15426,7 +15463,10 @@
         <v>116</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="40" t="n">
+      <c r="O10" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="P10" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15442,12 +15482,12 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="31" t="s">
         <v>176</v>
       </c>
       <c r="J11" s="6"/>
@@ -15455,7 +15495,8 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="40" t="n">
+      <c r="O11" s="31"/>
+      <c r="P11" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15471,12 +15512,12 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="31" t="s">
         <v>177</v>
       </c>
       <c r="J12" s="6"/>
@@ -15484,7 +15525,8 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="40" t="n">
+      <c r="O12" s="31"/>
+      <c r="P12" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15496,24 +15538,25 @@
         <v>77</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="8" t="s">
-        <v>405</v>
+      <c r="I13" s="43" t="s">
+        <v>408</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
-      <c r="O13" s="40" t="n">
+      <c r="O13" s="44"/>
+      <c r="P13" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15525,26 +15568,27 @@
         <v>79</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="8" t="s">
-        <v>405</v>
+      <c r="I14" s="43" t="s">
+        <v>408</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
-      <c r="O14" s="40" t="n">
+      <c r="O14" s="44"/>
+      <c r="P14" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15556,26 +15600,27 @@
         <v>80</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="8" t="s">
-        <v>405</v>
+      <c r="I15" s="43" t="s">
+        <v>408</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
-      <c r="O15" s="40" t="n">
+      <c r="O15" s="44"/>
+      <c r="P15" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15587,26 +15632,27 @@
         <v>81</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="8" t="s">
-        <v>405</v>
+      <c r="I16" s="43" t="s">
+        <v>408</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="40" t="n">
+      <c r="O16" s="44"/>
+      <c r="P16" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15618,26 +15664,27 @@
         <v>83</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="8" t="s">
-        <v>405</v>
+      <c r="I17" s="43" t="s">
+        <v>408</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="40" t="n">
+      <c r="O17" s="44"/>
+      <c r="P17" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15649,26 +15696,27 @@
         <v>84</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="8" t="s">
-        <v>405</v>
+      <c r="I18" s="43" t="s">
+        <v>408</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="40" t="n">
+      <c r="O18" s="44"/>
+      <c r="P18" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15680,26 +15728,27 @@
         <v>85</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="8" t="s">
-        <v>405</v>
+      <c r="I19" s="43" t="s">
+        <v>408</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="40" t="n">
+      <c r="O19" s="44"/>
+      <c r="P19" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15711,17 +15760,17 @@
         <v>86</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="39" t="s">
-        <v>393</v>
+      <c r="I20" s="40" t="s">
+        <v>394</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -15730,7 +15779,8 @@
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="40" t="n">
+      <c r="O20" s="44"/>
+      <c r="P20" s="41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -15758,24 +15808,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="61.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="21" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="21" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="21" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="21" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="21" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="21" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="21" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="21" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="21" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="21" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="21" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="21" width="6"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="21" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="21" width="7.60728744939271"/>
@@ -15799,16 +15849,16 @@
         <v>164</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>128</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>129</v>
@@ -15817,16 +15867,16 @@
         <v>166</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>169</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>173</v>
@@ -15840,11 +15890,11 @@
       <c r="S1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="U1" s="41" t="s">
-        <v>419</v>
+      <c r="T1" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15856,17 +15906,17 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="25"/>
@@ -15874,9 +15924,9 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
-      <c r="Q2" s="42"/>
+      <c r="Q2" s="46"/>
       <c r="R2" s="25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="S2" s="25" t="n">
         <v>0.5</v>
@@ -15898,7 +15948,7 @@
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25" t="s">
@@ -15906,11 +15956,11 @@
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="25" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -15933,19 +15983,19 @@
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -15968,19 +16018,19 @@
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>

--- a/Projects/RINIELSENUS/Data/Template_2018_SPT.xlsx
+++ b/Projects/RINIELSENUS/Data/Template_2018_SPT.xlsx
@@ -34,6 +34,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hierarchy!$A$1:$K$61</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">NBIL!$A$1:$G$866</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">NBIL!$A$1:$G$866</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">NBIL!$A$1:$G$866</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2896,21 +2897,21 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="L2:L20 B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.3805668016194"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="75.1983805668016"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="75.8421052631579"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="51.2024291497976"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="51.6315789473684"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.10526315789474"/>
   </cols>
@@ -4964,29 +4965,29 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="67.2712550607288"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="42" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="67.8056680161943"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="42" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="42" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="42" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="42" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="42" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="42" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="42" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="42" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="42" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="42" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="42" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="42" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="42" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="42" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="42" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="42" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="42" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="42" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="42" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="42" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="42" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="42" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="42" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="42" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="42" width="6"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="42" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="42" width="7.60728744939271"/>
@@ -5223,22 +5224,22 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="78.8380566801619"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="79.5910931174089"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="52.165991902834"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="9.10526315789474"/>
   </cols>
@@ -5362,17 +5363,17 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5415,22 +5416,22 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5536,22 +5537,22 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="62.1295546558704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="62.663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5755,7 +5756,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5802,23 +5803,23 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="68.0202429149798"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="68.5546558704453"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="65.2348178137652"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
   </cols>
@@ -6068,17 +6069,17 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.10526315789474"/>
@@ -6129,14 +6130,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6214,16 +6215,16 @@
   <dimension ref="1:2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
@@ -7303,19 +7304,19 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
@@ -7668,19 +7669,19 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.4817813765182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.2753036437247"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7769,16 +7770,16 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="81.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="82.6963562753036"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="25" width="83.3400809716599"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="77.7692307692308"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="25" width="84.0890688259109"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="78.412955465587"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
@@ -8111,28 +8112,28 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="71.3400809716599"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -8238,23 +8239,23 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="9.10526315789474"/>
@@ -8323,7 +8324,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8379,18 +8380,18 @@
   <dimension ref="A1:G866"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L20 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="10" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="10" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -14912,6 +14913,7 @@
       <c r="F432" s="36" t="s">
         <v>630</v>
       </c>
+      <c r="G432" s="0"/>
     </row>
     <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="10" t="s">
@@ -14926,6 +14928,7 @@
       <c r="F433" s="36" t="s">
         <v>631</v>
       </c>
+      <c r="G433" s="0"/>
     </row>
     <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B434" s="10" t="s">
@@ -14940,6 +14943,7 @@
       <c r="F434" s="36" t="s">
         <v>632</v>
       </c>
+      <c r="G434" s="0"/>
     </row>
     <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="10" t="s">
@@ -14954,6 +14958,7 @@
       <c r="F435" s="36" t="s">
         <v>633</v>
       </c>
+      <c r="G435" s="0"/>
     </row>
     <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B436" s="10" t="s">
@@ -14968,6 +14973,7 @@
       <c r="F436" s="36" t="s">
         <v>634</v>
       </c>
+      <c r="G436" s="0"/>
     </row>
     <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B437" s="10" t="s">
@@ -14982,6 +14988,7 @@
       <c r="F437" s="36" t="s">
         <v>635</v>
       </c>
+      <c r="G437" s="0"/>
     </row>
     <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B438" s="10" t="s">
@@ -14996,6 +15003,7 @@
       <c r="F438" s="36" t="s">
         <v>636</v>
       </c>
+      <c r="G438" s="0"/>
     </row>
     <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="10" t="s">
@@ -15010,6 +15018,7 @@
       <c r="F439" s="36" t="s">
         <v>637</v>
       </c>
+      <c r="G439" s="0"/>
     </row>
     <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B440" s="10" t="s">
@@ -15024,6 +15033,7 @@
       <c r="F440" s="36" t="s">
         <v>638</v>
       </c>
+      <c r="G440" s="0"/>
     </row>
     <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B441" s="10" t="s">
@@ -15038,6 +15048,7 @@
       <c r="F441" s="36" t="s">
         <v>639</v>
       </c>
+      <c r="G441" s="0"/>
     </row>
     <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="10" t="s">
@@ -21467,26 +21478,26 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="1" sqref="L2:L20 L24"/>
+      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="88.1578947368421"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="88.9068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="1" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="1" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.10526315789474"/>
   </cols>
@@ -21569,9 +21580,7 @@
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
-      <c r="L2" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L2" s="32"/>
       <c r="M2" s="32"/>
       <c r="N2" s="32" t="s">
         <v>115</v>
@@ -21605,9 +21614,7 @@
       <c r="I3" s="39"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
-      <c r="L3" s="0" t="n">
-        <v>2</v>
-      </c>
+      <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="32" t="s">
@@ -21641,9 +21648,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
-      <c r="L4" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L4" s="32"/>
       <c r="M4" s="32"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32" t="s">
@@ -21677,9 +21682,7 @@
       <c r="I5" s="39"/>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
-      <c r="L5" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L5" s="32"/>
       <c r="M5" s="32"/>
       <c r="N5" s="32"/>
       <c r="O5" s="32" t="s">
@@ -21713,9 +21716,7 @@
       <c r="I6" s="39"/>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
-      <c r="L6" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L6" s="32"/>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
       <c r="O6" s="32" t="s">
@@ -21751,9 +21752,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
-      <c r="L7" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L7" s="32"/>
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
@@ -21787,9 +21786,7 @@
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
-      <c r="L8" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
       <c r="O8" s="32" t="s">
@@ -21823,9 +21820,7 @@
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
-      <c r="L9" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L9" s="32"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="32" t="s">
@@ -21861,9 +21856,7 @@
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" s="32"/>
       <c r="O10" s="32" t="s">
@@ -21899,9 +21892,7 @@
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
-      <c r="L11" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
@@ -21933,9 +21924,7 @@
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
-      <c r="L12" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L12" s="32"/>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
@@ -21964,9 +21953,7 @@
       </c>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
-      <c r="L13" s="0" t="n">
-        <v>2</v>
-      </c>
+      <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
       <c r="R13" s="40" t="n">
@@ -21994,9 +21981,7 @@
         <v>733</v>
       </c>
       <c r="K14" s="0"/>
-      <c r="L14" s="0" t="n">
-        <v>2</v>
-      </c>
+      <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
       <c r="R14" s="40" t="n">
@@ -22024,9 +22009,7 @@
         <v>734</v>
       </c>
       <c r="K15" s="0"/>
-      <c r="L15" s="0" t="n">
-        <v>2</v>
-      </c>
+      <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="R15" s="40" t="n">
@@ -22054,9 +22037,7 @@
         <v>735</v>
       </c>
       <c r="K16" s="0"/>
-      <c r="L16" s="0" t="n">
-        <v>2</v>
-      </c>
+      <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
       <c r="R16" s="40" t="n">
@@ -22084,9 +22065,7 @@
       <c r="K17" s="32" t="s">
         <v>736</v>
       </c>
-      <c r="L17" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" s="0"/>
       <c r="R17" s="40" t="n">
@@ -22114,9 +22093,7 @@
       <c r="K18" s="32" t="s">
         <v>737</v>
       </c>
-      <c r="L18" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L18" s="32"/>
       <c r="M18" s="32"/>
       <c r="N18" s="0"/>
       <c r="R18" s="40" t="n">
@@ -22144,9 +22121,7 @@
       <c r="K19" s="32" t="s">
         <v>738</v>
       </c>
-      <c r="L19" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="L19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" s="0"/>
       <c r="R19" s="40" t="n">
@@ -22168,9 +22143,6 @@
       </c>
       <c r="I20" s="39" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="N20" s="32" t="s">
         <v>115</v>

--- a/Projects/RINIELSENUS/Data/Template_2018_SPT.xlsx
+++ b/Projects/RINIELSENUS/Data/Template_2018_SPT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KatieSchrage\Documents\Mars SPT_Year End 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59261978-E8CB-41C6-8EBC-D3DBB82BFEE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83760FB-6336-4AAA-B206-476592E8D394}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,6 +37,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hierarchy!$A$1:$K$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">NBIL!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">sales!$A$1:$I$13</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">NBIL!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">NBIL!$A$1:$G$1</definedName>
     <definedName name="count">#REF!</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4388" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="749">
   <si>
     <t>Set name</t>
   </si>
@@ -2301,6 +2302,9 @@
   </si>
   <si>
     <t>DENTASTIX FRESH BISCUITS,DENTASTIX FRESH BITES,DENTASTIX PUPPY</t>
+  </si>
+  <si>
+    <t>Updated SOA in sales sheet</t>
   </si>
 </sst>
 </file>
@@ -2504,7 +2508,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2650,6 +2654,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -3073,7 +3079,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3378,6 +3384,17 @@
       </c>
       <c r="L8" s="30">
         <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="67">
+        <v>43389</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>748</v>
+      </c>
+      <c r="D9" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -8414,8 +8431,8 @@
     <col min="6" max="6" width="15.5703125"/>
     <col min="7" max="7" width="12.140625"/>
     <col min="8" max="8" width="35.140625"/>
-    <col min="9" max="9" width="7.5703125"/>
-    <col min="10" max="1025" width="8.5703125"/>
+    <col min="9" max="9" width="8.5703125" style="20"/>
+    <col min="10" max="1024" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -8443,7 +8460,7 @@
       <c r="H1" t="s">
         <v>131</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="20" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8473,7 +8490,7 @@
         <v>139</v>
       </c>
       <c r="I2" s="20">
-        <v>8.6737796582475806</v>
+        <v>1.5903014132858266E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8499,7 +8516,7 @@
         <v>140</v>
       </c>
       <c r="I3" s="20">
-        <v>9.8200403982364506</v>
+        <v>8.3109300950776834</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8528,7 +8545,7 @@
         <v>139</v>
       </c>
       <c r="I4" s="20">
-        <v>20.432023824358101</v>
+        <v>14.880668134877203</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -8554,7 +8571,7 @@
         <v>140</v>
       </c>
       <c r="I5" s="20">
-        <v>19.133694047768198</v>
+        <v>18.591870167348944</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -8583,7 +8600,7 @@
         <v>143</v>
       </c>
       <c r="I6" s="20">
-        <v>25.96987416724</v>
+        <v>19.135424973090711</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8609,7 +8626,7 @@
         <v>144</v>
       </c>
       <c r="I7" s="20">
-        <v>5.1243043431852797</v>
+        <v>5.0835164946496638</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8638,7 +8655,7 @@
         <v>143</v>
       </c>
       <c r="I8" s="20">
-        <v>32.470822099608903</v>
+        <v>28.598878735426158</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8664,7 +8681,7 @@
         <v>144</v>
       </c>
       <c r="I9" s="20">
-        <v>12.513043525293901</v>
+        <v>12.599931807229373</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8684,7 +8701,7 @@
         <v>136</v>
       </c>
       <c r="I10" s="20">
-        <v>21.0672412618006</v>
+        <v>20.065653054711159</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8704,7 +8721,7 @@
         <v>136</v>
       </c>
       <c r="I11" s="20">
-        <v>24.421974816201399</v>
+        <v>25.969597205754312</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -8724,7 +8741,7 @@
         <v>136</v>
       </c>
       <c r="I12" s="20">
-        <v>52.596491548543902</v>
+        <v>51.589719027449142</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8744,10 +8761,11 @@
         <v>136</v>
       </c>
       <c r="I13" s="20">
-        <v>61.126383122607002</v>
+        <v>60.991102411080547</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I13" xr:uid="{2817B11E-52EF-467C-B96E-E84BBD14A674}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
